--- a/new_modules/ComparisoinTable.xlsx
+++ b/new_modules/ComparisoinTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>mean</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>(BLUE+NIR)/(RED+SWIR3)</t>
+  </si>
+  <si>
+    <t>(NIR)/(SWIR3)</t>
+  </si>
+  <si>
+    <t>(BLUE)/(RED)</t>
   </si>
   <si>
     <t>ULTRA_BLUE</t>
@@ -467,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,25 +821,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.274154356595656</v>
+        <v>0.7334149664549692</v>
       </c>
       <c r="C15">
-        <v>-0.2910112583409781</v>
+        <v>0.7716796277870803</v>
       </c>
       <c r="D15">
-        <v>-0.3463756429944091</v>
+        <v>0.7210839588663558</v>
       </c>
       <c r="E15">
-        <v>-0.3103190465529317</v>
+        <v>0.7278943413665891</v>
       </c>
       <c r="F15">
-        <v>0.03248149018303957</v>
+        <v>0.5993353115079419</v>
       </c>
       <c r="G15">
-        <v>-0.4745109009199598</v>
+        <v>0.2623972989041699</v>
       </c>
       <c r="H15">
-        <v>-0.3487368323375128</v>
+        <v>0.09284532677922309</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -841,25 +847,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.307259547222193</v>
+        <v>0.4601081158231187</v>
       </c>
       <c r="C16">
-        <v>-0.3120910918031106</v>
+        <v>0.4482435646970626</v>
       </c>
       <c r="D16">
-        <v>-0.3136776914035408</v>
+        <v>0.4494232152350071</v>
       </c>
       <c r="E16">
-        <v>-0.3104542400601786</v>
+        <v>0.4545692337594601</v>
       </c>
       <c r="F16">
-        <v>-0.2844056042143196</v>
+        <v>0.4572166943082732</v>
       </c>
       <c r="G16">
-        <v>-0.2722796802935969</v>
+        <v>0.2499074745695709</v>
       </c>
       <c r="H16">
-        <v>-0.2891813942196095</v>
+        <v>0.2270586959188844</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -867,25 +873,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.374251006666794</v>
+        <v>-0.274154356595656</v>
       </c>
       <c r="C17">
-        <v>-0.3858492776516941</v>
+        <v>-0.2910112583409781</v>
       </c>
       <c r="D17">
-        <v>-0.3802071169487714</v>
+        <v>-0.3463756429944091</v>
       </c>
       <c r="E17">
-        <v>-0.3772871330238551</v>
+        <v>-0.3103190465529317</v>
       </c>
       <c r="F17">
-        <v>-0.3638784408019409</v>
+        <v>0.03248149018303957</v>
       </c>
       <c r="G17">
-        <v>-0.2563387423179364</v>
+        <v>-0.4745109009199598</v>
       </c>
       <c r="H17">
-        <v>-0.3678609969677049</v>
+        <v>-0.3487368323375128</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -893,25 +899,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.5001579135599781</v>
+        <v>-0.307259547222193</v>
       </c>
       <c r="C18">
-        <v>-0.5146197428200054</v>
+        <v>-0.3120910918031106</v>
       </c>
       <c r="D18">
-        <v>-0.5150633312583917</v>
+        <v>-0.3136776914035408</v>
       </c>
       <c r="E18">
-        <v>-0.5076278609138144</v>
+        <v>-0.3104542400601786</v>
       </c>
       <c r="F18">
-        <v>-0.3289316578546271</v>
+        <v>-0.2844056042143196</v>
       </c>
       <c r="G18">
-        <v>-0.5725690530175348</v>
+        <v>-0.2722796802935969</v>
       </c>
       <c r="H18">
-        <v>-0.4698446746635127</v>
+        <v>-0.2891813942196095</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -919,25 +925,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.4034513037382588</v>
+        <v>-0.374251006666794</v>
       </c>
       <c r="C19">
-        <v>-0.4157486397958597</v>
+        <v>-0.3858492776516941</v>
       </c>
       <c r="D19">
-        <v>-0.3912268981164349</v>
+        <v>-0.3802071169487714</v>
       </c>
       <c r="E19">
-        <v>-0.3977703304481217</v>
+        <v>-0.3772871330238551</v>
       </c>
       <c r="F19">
-        <v>-0.3460984664925219</v>
+        <v>-0.3638784408019409</v>
       </c>
       <c r="G19">
-        <v>-0.226299726596093</v>
+        <v>-0.2563387423179364</v>
       </c>
       <c r="H19">
-        <v>-0.3593729474284996</v>
+        <v>-0.3678609969677049</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -945,22 +951,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.1658537716105715</v>
+        <v>-0.5001579135599781</v>
       </c>
       <c r="C20">
-        <v>-0.2143644197420956</v>
+        <v>-0.5146197428200054</v>
       </c>
       <c r="D20">
-        <v>-0.1642934437603307</v>
+        <v>-0.5150633312583917</v>
       </c>
       <c r="E20">
-        <v>-0.165331731219456</v>
+        <v>-0.5076278609138144</v>
+      </c>
+      <c r="F20">
+        <v>-0.3289316578546271</v>
       </c>
       <c r="G20">
-        <v>0.2233574401630356</v>
+        <v>-0.5725690530175348</v>
       </c>
       <c r="H20">
-        <v>-0.1798211193353982</v>
+        <v>-0.4698446746635127</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -968,22 +977,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.05661518231266964</v>
+        <v>-0.4034513037382588</v>
       </c>
       <c r="C21">
-        <v>-0.1011916081660774</v>
+        <v>-0.4157486397958597</v>
       </c>
       <c r="D21">
-        <v>-0.05409581037634208</v>
+        <v>-0.3912268981164349</v>
       </c>
       <c r="E21">
-        <v>-0.05542504783242453</v>
+        <v>-0.3977703304481217</v>
+      </c>
+      <c r="F21">
+        <v>-0.3460984664925219</v>
       </c>
       <c r="G21">
-        <v>0.1943068204535408</v>
+        <v>-0.226299726596093</v>
       </c>
       <c r="H21">
-        <v>-0.1283894187129195</v>
+        <v>-0.3593729474284996</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -991,22 +1003,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08452406195302911</v>
+        <v>-0.1658537716105715</v>
       </c>
       <c r="C22">
-        <v>0.3147916378363909</v>
+        <v>-0.2143644197420956</v>
       </c>
       <c r="D22">
-        <v>0.08379905500364269</v>
+        <v>-0.1642934437603307</v>
       </c>
       <c r="E22">
-        <v>0.08417553247176532</v>
+        <v>-0.165331731219456</v>
       </c>
       <c r="G22">
-        <v>0.2849360179961992</v>
+        <v>0.2233574401630356</v>
       </c>
       <c r="H22">
-        <v>-0.1038851443937653</v>
+        <v>-0.1798211193353982</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1014,22 +1026,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2121794779210004</v>
+        <v>-0.05661518231266964</v>
       </c>
       <c r="C23">
-        <v>0.3072577138486088</v>
+        <v>-0.1011916081660774</v>
       </c>
       <c r="D23">
-        <v>0.2123811835178209</v>
+        <v>-0.05409581037634208</v>
       </c>
       <c r="E23">
-        <v>0.2122847955753593</v>
+        <v>-0.05542504783242453</v>
       </c>
       <c r="G23">
-        <v>0.1286490664816557</v>
+        <v>0.1943068204535408</v>
       </c>
       <c r="H23">
-        <v>-0.1004983515435227</v>
+        <v>-0.1283894187129195</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1037,30 +1049,45 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2657277768242405</v>
+        <v>0.08452406195302911</v>
       </c>
       <c r="C24">
-        <v>0.3072577138486088</v>
+        <v>0.3147916378363909</v>
       </c>
       <c r="D24">
-        <v>0.2759600121003304</v>
+        <v>0.08379905500364269</v>
       </c>
       <c r="E24">
-        <v>0.2705045100771133</v>
+        <v>0.08417553247176532</v>
       </c>
       <c r="G24">
-        <v>0.1386991999631776</v>
+        <v>0.2849360179961992</v>
       </c>
       <c r="H24">
-        <v>-0.08597251357493647</v>
+        <v>-0.1038851443937653</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B25">
+        <v>0.2121794779210004</v>
+      </c>
+      <c r="C25">
+        <v>0.3072577138486088</v>
+      </c>
+      <c r="D25">
+        <v>0.2123811835178209</v>
+      </c>
+      <c r="E25">
+        <v>0.2122847955753593</v>
+      </c>
+      <c r="G25">
+        <v>0.1286490664816557</v>
+      </c>
       <c r="H25">
-        <v>-0.1106705388307441</v>
+        <v>-0.1004983515435227</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,21 +1095,52 @@
         <v>31</v>
       </c>
       <c r="B26">
+        <v>0.2657277768242405</v>
+      </c>
+      <c r="C26">
+        <v>0.3072577138486088</v>
+      </c>
+      <c r="D26">
+        <v>0.2759600121003304</v>
+      </c>
+      <c r="E26">
+        <v>0.2705045100771133</v>
+      </c>
+      <c r="G26">
+        <v>0.1386991999631776</v>
+      </c>
+      <c r="H26">
+        <v>-0.08597251357493647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>-0.1106705388307441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>-0.7294776875471469</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>-0.7463499246002849</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>-0.7278007792482043</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>-0.7287449638940133</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>-0.5524318288590543</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>-0.2695810472306612</v>
       </c>
     </row>
